--- a/src/main/resources/BirthdaySheet.xlsx
+++ b/src/main/resources/BirthdaySheet.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\NewProject\BirthdayEmail\src\main\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E08A1055-D54F-4146-BC80-7CC94FC8E24D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4F1859D2-7C2E-4660-A7E8-77714FB4663F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -412,10 +412,13 @@
   <dimension ref="A1:C4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G13" sqref="G13"/>
+      <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="34.140625" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
